--- a/SourceCode/2023/August2023/Yash/RPAChallenge_Documents/Yash_DeploymentSheet.xlsx
+++ b/SourceCode/2023/August2023/Yash/RPAChallenge_Documents/Yash_DeploymentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b217b7127be6c014/Documents/RPA30Days_Program/RPA-Developer-in-30-Days/SourceCode/2023/August2023/Yash/RPAChallenge_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17195FF6-6D0E-4279-83C6-5ED36830718B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{17195FF6-6D0E-4279-83C6-5ED36830718B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B34AFA3E-E983-4CA7-ABE2-186DD3AD3DD3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Queue</t>
   </si>
@@ -93,17 +93,32 @@
     <t>RE_RPAChallenge</t>
   </si>
   <si>
-    <t>1.0.1</t>
-  </si>
-  <si>
     <t>Queue Name</t>
+  </si>
+  <si>
+    <t>RPAChallenge_Path</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>RPAChallenge_URL</t>
+  </si>
+  <si>
+    <t>C:\Users\User\OneDrive\Documents\RPA30Days_Program\RPA-Developer-in-30-Days\SourceCode\2023\August2023\Yash\RE_RPAChallenge\Data\Input\challenge.xlsx</t>
+  </si>
+  <si>
+    <t>https://rpachallenge.com/</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +141,20 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5B666F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF464E55"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,10 +176,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,14 +500,14 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="141.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" customWidth="1"/>
     <col min="8" max="8" width="21.88671875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
@@ -527,14 +559,25 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
+      <c r="A9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -558,7 +601,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -587,7 +630,7 @@
     </row>
     <row r="23" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>2</v>
@@ -600,25 +643,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d33c5939-658a-47e7-838b-e25cfa067e0a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000CD8B5B80C3246438C6600F7F87EA0DB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70e44f1a52cdf91ccf5c5600509ff52c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d33c5939-658a-47e7-838b-e25cfa067e0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d12556482dc0daaaa1e2ab6533ba06d" ns2:_="">
     <xsd:import namespace="d33c5939-658a-47e7-838b-e25cfa067e0a"/>
@@ -796,25 +820,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d33c5939-658a-47e7-838b-e25cfa067e0a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4114605-8367-45E9-BCAA-48E6CC9BF5B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC3262A-04D9-4CF6-9FED-4626FB99F703}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d33c5939-658a-47e7-838b-e25cfa067e0a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76FF799A-F6E3-41B8-848C-60215294BA8E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -830,4 +855,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC3262A-04D9-4CF6-9FED-4626FB99F703}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d33c5939-658a-47e7-838b-e25cfa067e0a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4114605-8367-45E9-BCAA-48E6CC9BF5B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SourceCode/2023/August2023/Yash/RPAChallenge_Documents/Yash_DeploymentSheet.xlsx
+++ b/SourceCode/2023/August2023/Yash/RPAChallenge_Documents/Yash_DeploymentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b217b7127be6c014/Documents/RPA30Days_Program/RPA-Developer-in-30-Days/SourceCode/2023/August2023/Yash/RPAChallenge_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{17195FF6-6D0E-4279-83C6-5ED36830718B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B34AFA3E-E983-4CA7-ABE2-186DD3AD3DD3}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{17195FF6-6D0E-4279-83C6-5ED36830718B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8B682C9-8BDF-4EBF-A931-5C7B5544F5A2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,13 +105,13 @@
     <t>RPAChallenge_URL</t>
   </si>
   <si>
-    <t>C:\Users\User\OneDrive\Documents\RPA30Days_Program\RPA-Developer-in-30-Days\SourceCode\2023\August2023\Yash\RE_RPAChallenge\Data\Input\challenge.xlsx</t>
-  </si>
-  <si>
     <t>https://rpachallenge.com/</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>Data\Input\challenge.xlsx</t>
+  </si>
+  <si>
+    <t>1.0.3</t>
   </si>
 </sst>
 </file>
@@ -176,13 +176,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +499,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,7 +565,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -576,8 +575,8 @@
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
+      <c r="C10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -643,6 +642,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d33c5939-658a-47e7-838b-e25cfa067e0a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000CD8B5B80C3246438C6600F7F87EA0DB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70e44f1a52cdf91ccf5c5600509ff52c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d33c5939-658a-47e7-838b-e25cfa067e0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d12556482dc0daaaa1e2ab6533ba06d" ns2:_="">
     <xsd:import namespace="d33c5939-658a-47e7-838b-e25cfa067e0a"/>
@@ -820,26 +838,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d33c5939-658a-47e7-838b-e25cfa067e0a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4114605-8367-45E9-BCAA-48E6CC9BF5B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC3262A-04D9-4CF6-9FED-4626FB99F703}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d33c5939-658a-47e7-838b-e25cfa067e0a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76FF799A-F6E3-41B8-848C-60215294BA8E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -855,22 +872,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC3262A-04D9-4CF6-9FED-4626FB99F703}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d33c5939-658a-47e7-838b-e25cfa067e0a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4114605-8367-45E9-BCAA-48E6CC9BF5B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SourceCode/2023/August2023/Yash/RPAChallenge_Documents/Yash_DeploymentSheet.xlsx
+++ b/SourceCode/2023/August2023/Yash/RPAChallenge_Documents/Yash_DeploymentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b217b7127be6c014/Documents/RPA30Days_Program/RPA-Developer-in-30-Days/SourceCode/2023/August2023/Yash/RPAChallenge_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{17195FF6-6D0E-4279-83C6-5ED36830718B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8B682C9-8BDF-4EBF-A931-5C7B5544F5A2}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{17195FF6-6D0E-4279-83C6-5ED36830718B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACD7B48C-B788-4D81-86BA-744CED0381E7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Queue</t>
   </si>
@@ -111,7 +111,13 @@
     <t>Data\Input\challenge.xlsx</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
+  </si>
+  <si>
+    <t>Queue FolderName</t>
+  </si>
+  <si>
+    <t>Shared</t>
   </si>
 </sst>
 </file>
@@ -496,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,6 +641,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -642,25 +656,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d33c5939-658a-47e7-838b-e25cfa067e0a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000CD8B5B80C3246438C6600F7F87EA0DB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70e44f1a52cdf91ccf5c5600509ff52c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d33c5939-658a-47e7-838b-e25cfa067e0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d12556482dc0daaaa1e2ab6533ba06d" ns2:_="">
     <xsd:import namespace="d33c5939-658a-47e7-838b-e25cfa067e0a"/>
@@ -838,25 +833,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d33c5939-658a-47e7-838b-e25cfa067e0a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4114605-8367-45E9-BCAA-48E6CC9BF5B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC3262A-04D9-4CF6-9FED-4626FB99F703}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d33c5939-658a-47e7-838b-e25cfa067e0a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76FF799A-F6E3-41B8-848C-60215294BA8E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -872,4 +868,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC3262A-04D9-4CF6-9FED-4626FB99F703}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d33c5939-658a-47e7-838b-e25cfa067e0a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4114605-8367-45E9-BCAA-48E6CC9BF5B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>